--- a/Inputs/JRC_EU_TIMES/ProRes1/TIMES_H2_Demand_PtL_2050.xlsx
+++ b/Inputs/JRC_EU_TIMES/ProRes1/TIMES_H2_Demand_PtL_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva\Downloads\MASTER\TFE\DispaSET-SideTools\Inputs\JRC_EU_TIMES\ProRes1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4714829E-CA28-4000-B094-82945AAFFD8D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9783613D-15DA-4FD0-99C1-C624ED32A20C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AAF23B0A-7AA7-4A89-AD97-15CF4A99DFC9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2E8F1F29-04E4-4680-A28F-F4DFDBC75B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Process Description1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>PJ</t>
   </si>
   <si>
     <t>Region</t>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Supply convert CCS emission to Methanol supplied by H2</t>
-  </si>
-  <si>
-    <t>Supply convert CCS emission to Methanol supplied by H2 LowAF</t>
   </si>
   <si>
     <t>AT</t>
@@ -182,17 +179,17 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
@@ -508,59 +505,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918706F8-8AD5-469D-84F9-76DE606B8F7B}">
-  <dimension ref="A1:D29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA7A156-CB89-4178-A937-8BB7728667E4}">
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>48.308</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>131.696</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>76.284999999999997</v>
@@ -568,13 +562,10 @@
       <c r="C5" s="1">
         <v>5.6280000000000001</v>
       </c>
-      <c r="D5" s="1">
-        <v>1.5629999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>57.095999999999997</v>
@@ -582,29 +573,26 @@
       <c r="C6" s="1">
         <v>4.4219999999999997</v>
       </c>
-      <c r="D6" s="1">
-        <v>1.228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>25.109000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>278.399</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>107.36000000000001</v>
@@ -612,13 +600,10 @@
       <c r="C9" s="1">
         <v>1.4450000000000001</v>
       </c>
-      <c r="D9" s="1">
-        <v>0.40100000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>24.258999999999997</v>
@@ -626,13 +611,10 @@
       <c r="C10" s="1">
         <v>0.42799999999999999</v>
       </c>
-      <c r="D10" s="1">
-        <v>0.11899999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>279.58499999999998</v>
@@ -640,13 +622,10 @@
       <c r="C11" s="1">
         <v>14.24</v>
       </c>
-      <c r="D11" s="1">
-        <v>3.956</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>570.55400000000009</v>
@@ -654,13 +633,10 @@
       <c r="C12" s="1">
         <v>116.676</v>
       </c>
-      <c r="D12" s="1">
-        <v>32.409999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>108.89500000000001</v>
@@ -668,13 +644,10 @@
       <c r="C13" s="1">
         <v>2.7690000000000001</v>
       </c>
-      <c r="D13" s="1">
-        <v>0.76900000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
         <v>685.78100000000006</v>
@@ -682,21 +655,18 @@
       <c r="C14" s="1">
         <v>34.494999999999997</v>
       </c>
-      <c r="D14" s="1">
-        <v>9.5820000000000007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
         <v>5.5169999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
         <v>28.858000000000001</v>
@@ -704,21 +674,18 @@
       <c r="C16" s="1">
         <v>0.23799999999999999</v>
       </c>
-      <c r="D16" s="1">
-        <v>6.3E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
         <v>919.63900000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
         <v>46.673000000000002</v>
@@ -726,21 +693,18 @@
       <c r="C18" s="1">
         <v>1.1739999999999999</v>
       </c>
-      <c r="D18" s="1">
-        <v>0.32600000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
         <v>4.6920000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>20.856999999999999</v>
@@ -748,13 +712,10 @@
       <c r="C20" s="1">
         <v>0.11</v>
       </c>
-      <c r="D20" s="1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
         <v>2.09</v>
@@ -762,21 +723,18 @@
       <c r="C21" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="D21" s="1">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
         <v>285.48299999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1">
         <v>201.52600000000001</v>
@@ -784,13 +742,10 @@
       <c r="C23" s="1">
         <v>2.74</v>
       </c>
-      <c r="D23" s="1">
-        <v>0.76100000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
         <v>132.83100000000002</v>
@@ -798,13 +753,10 @@
       <c r="C24" s="1">
         <v>1.61</v>
       </c>
-      <c r="D24" s="1">
-        <v>0.44700000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1">
         <v>149.75500000000002</v>
@@ -812,13 +764,10 @@
       <c r="C25" s="1">
         <v>8.7710000000000008</v>
       </c>
-      <c r="D25" s="1">
-        <v>2.4359999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1">
         <v>212.92000000000002</v>
@@ -826,21 +775,18 @@
       <c r="C26" s="1">
         <v>1.756</v>
       </c>
-      <c r="D26" s="1">
-        <v>0.48799999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1">
         <v>3.2570000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1">
         <v>6.7030000000000003</v>
@@ -848,13 +794,10 @@
       <c r="C28" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="D28" s="1">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1">
         <v>740.44500000000005</v>
@@ -862,8 +805,9 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>